--- a/TestData/TestData.xlsx
+++ b/TestData/TestData.xlsx
@@ -1,43 +1,62 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="TestLogin" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="TestRegister" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-  </extLst>
+  <definedNames/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="4">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <color theme="10"/>
+      <sz val="11"/>
+      <u val="single"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <color theme="1"/>
+      <sz val="24"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <color theme="1"/>
+      <sz val="18"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -45,26 +64,133 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+  <cellXfs count="13">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" pivotButton="0" quotePrefix="1" xfId="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" pivotButton="0" quotePrefix="1" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -330,13 +456,459 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B22" sqref="B22"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
+  <cols>
+    <col width="32.6640625" bestFit="1" customWidth="1" style="11" min="1" max="1"/>
+    <col width="62.21875" bestFit="1" customWidth="1" style="11" min="2" max="2"/>
+    <col width="12.6640625" bestFit="1" customWidth="1" style="11" min="3" max="3"/>
+    <col width="13.109375" bestFit="1" customWidth="1" style="11" min="4" max="4"/>
+    <col width="11" bestFit="1" customWidth="1" style="11" min="5" max="5"/>
+    <col width="9.109375" bestFit="1" customWidth="1" style="11" min="6" max="6"/>
+    <col width="11" bestFit="1" customWidth="1" style="11" min="14" max="14"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="10" t="inlineStr">
+        <is>
+          <t>TestCaseLogin</t>
+        </is>
+      </c>
+    </row>
+    <row r="2"/>
+    <row r="3"/>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="1" t="n"/>
+      <c r="C5" s="1" t="n"/>
+    </row>
+    <row r="6">
+      <c r="A6" s="8" t="n"/>
+      <c r="B6" s="1" t="n"/>
+      <c r="C6" s="1" t="n"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="8" t="n"/>
+      <c r="B7" s="3" t="n"/>
+      <c r="C7" s="1" t="n"/>
+    </row>
+    <row r="8">
+      <c r="A8" s="8" t="n"/>
+      <c r="B8" s="8" t="n"/>
+      <c r="C8" s="1" t="n"/>
+    </row>
+    <row r="9">
+      <c r="A9" s="4" t="n"/>
+      <c r="B9" s="3" t="n"/>
+      <c r="C9" s="1" t="n"/>
+    </row>
+    <row r="10">
+      <c r="A10" s="8" t="n"/>
+      <c r="B10" s="5" t="n"/>
+      <c r="C10" s="1" t="n"/>
+    </row>
+    <row r="11">
+      <c r="A11" s="8" t="n"/>
+      <c r="B11" s="3" t="n"/>
+      <c r="C11" s="1" t="n"/>
+    </row>
+    <row r="12">
+      <c r="A12" s="8" t="n"/>
+      <c r="B12" s="3" t="n"/>
+      <c r="C12" s="1" t="n"/>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+      <c r="B15" s="1" t="inlineStr">
+        <is>
+          <t>password</t>
+        </is>
+      </c>
+      <c r="C15" s="1" t="inlineStr">
+        <is>
+          <t>Resuts</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="8" t="inlineStr">
+        <is>
+          <t>ngoc.hoang11963201@gmail.com</t>
+        </is>
+      </c>
+      <c r="B16" s="1" t="n">
+        <v>111111</v>
+      </c>
+      <c r="C16" s="1" t="inlineStr">
+        <is>
+          <t>test failed</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="8" t="inlineStr">
+        <is>
+          <t>ngoc.hoang11963201@gmail.co.vn</t>
+        </is>
+      </c>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>TYMAPTK01678908390</t>
+        </is>
+      </c>
+      <c r="C17" s="1" t="inlineStr">
+        <is>
+          <t>test failed</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="8" t="inlineStr">
+        <is>
+          <t>ngoc.hoang11963201@gmail.co.vn</t>
+        </is>
+      </c>
+      <c r="B18" s="8" t="inlineStr">
+        <is>
+          <t>adfdfghhjghjgjffghjgfhAA!@#$%dghghkhjghjhkhjksdgdfhjkjyt4545345dfsdfs</t>
+        </is>
+      </c>
+      <c r="C18" s="1" t="inlineStr">
+        <is>
+          <t>test failed</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">ngoc.hoang11963201gmail.co.vn                 </t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>tymaptk01678908390</t>
+        </is>
+      </c>
+      <c r="C19" s="1" t="inlineStr">
+        <is>
+          <t>test failed</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="8" t="inlineStr">
+        <is>
+          <t>ngoc.hoang11963201@gmail.co.vn</t>
+        </is>
+      </c>
+      <c r="B20" s="5" t="inlineStr">
+        <is>
+          <t>1+1 or a+b'</t>
+        </is>
+      </c>
+      <c r="C20" s="1" t="inlineStr">
+        <is>
+          <t>test failed</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="8" t="inlineStr">
+        <is>
+          <t>ngoc.hoang11963201@gmail.co.vn</t>
+        </is>
+      </c>
+      <c r="B21" s="3" t="n">
+        <v>122344</v>
+      </c>
+      <c r="C21" s="1" t="inlineStr">
+        <is>
+          <t>test failed</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="8" t="inlineStr">
+        <is>
+          <t>ngoc.hoang11963201@gmail.co.vn</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>tymaptk01678908390</t>
+        </is>
+      </c>
+      <c r="C22" s="1" t="inlineStr">
+        <is>
+          <t>test passed</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:C3"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="A16" r:id="rId1"/>
+    <hyperlink ref="A17" r:id="rId2"/>
+    <hyperlink ref="A18" r:id="rId3"/>
+    <hyperlink ref="B18" r:id="rId4"/>
+    <hyperlink ref="A20" r:id="rId5"/>
+    <hyperlink ref="A21" r:id="rId6"/>
+    <hyperlink ref="A22" r:id="rId7"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N22"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D20" sqref="D20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
+  <cols>
+    <col width="32.6640625" bestFit="1" customWidth="1" style="11" min="1" max="1"/>
+    <col width="30.77734375" bestFit="1" customWidth="1" style="11" min="2" max="2"/>
+    <col width="12.6640625" bestFit="1" customWidth="1" style="11" min="3" max="3"/>
+    <col width="13.109375" bestFit="1" customWidth="1" style="11" min="4" max="4"/>
+    <col width="11" bestFit="1" customWidth="1" style="11" min="5" max="5"/>
+    <col width="9.109375" bestFit="1" customWidth="1" style="11" min="6" max="6"/>
+    <col width="11" bestFit="1" customWidth="1" style="11" min="14" max="14"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="12" t="inlineStr">
+        <is>
+          <t>TestCaseRegister</t>
+        </is>
+      </c>
+    </row>
+    <row r="2"/>
+    <row r="3">
+      <c r="N3" t="n">
+        <v>1678908390</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="1" t="n"/>
+      <c r="C5" s="1" t="n"/>
+      <c r="D5" s="1" t="n"/>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="2" t="n"/>
+      <c r="C6" s="1" t="n"/>
+      <c r="D6" s="1" t="n"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n"/>
+      <c r="B7" s="2" t="n"/>
+      <c r="C7" s="1" t="n"/>
+      <c r="D7" s="1" t="n"/>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="1" t="n"/>
+      <c r="C8" s="1" t="n"/>
+      <c r="D8" s="1" t="n"/>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="2" t="n"/>
+      <c r="C9" s="1" t="n"/>
+      <c r="D9" s="1" t="n"/>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n"/>
+      <c r="B10" s="2" t="n"/>
+      <c r="C10" s="1" t="n"/>
+      <c r="D10" s="1" t="n"/>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="2" t="n"/>
+      <c r="C11" s="1" t="n"/>
+      <c r="D11" s="1" t="n"/>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="8" t="n"/>
+      <c r="C12" s="1" t="n"/>
+      <c r="D12" s="1" t="n"/>
+    </row>
+    <row r="13">
+      <c r="B13" s="8" t="n"/>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="inlineStr">
+        <is>
+          <t>Name</t>
+        </is>
+      </c>
+      <c r="B15" s="1" t="inlineStr">
+        <is>
+          <t>Email</t>
+        </is>
+      </c>
+      <c r="C15" s="1" t="inlineStr">
+        <is>
+          <t>Password</t>
+        </is>
+      </c>
+      <c r="D15" s="1" t="inlineStr">
+        <is>
+          <t>Resutls</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Duyen1215</t>
+        </is>
+      </c>
+      <c r="B16" s="2" t="inlineStr">
+        <is>
+          <t>duyen48935donga.edu.vn</t>
+        </is>
+      </c>
+      <c r="C16" s="1" t="n">
+        <v>1234134</v>
+      </c>
+      <c r="D16" s="1" t="inlineStr">
+        <is>
+          <t>test failed</t>
+        </is>
+      </c>
+    </row>
+    <row r="17" ht="28.8" customHeight="1" s="11">
+      <c r="A17" s="6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  &lt;script&gt;
+       alert("show")    &lt;/script&gt;</t>
+        </is>
+      </c>
+      <c r="B17" s="8" t="inlineStr">
+        <is>
+          <t>duyen48935@donga.edu.co</t>
+        </is>
+      </c>
+      <c r="C17" s="1" t="n">
+        <v>1234134</v>
+      </c>
+      <c r="D17" s="1" t="inlineStr">
+        <is>
+          <t>test failed</t>
+        </is>
+      </c>
+    </row>
+    <row r="18" ht="57.6" customHeight="1" s="11">
+      <c r="A18" s="1" t="inlineStr">
+        <is>
+          <t>Duyen1217</t>
+        </is>
+      </c>
+      <c r="B18" s="8" t="inlineStr">
+        <is>
+          <t>aduyen48935@donga.edu.vn</t>
+        </is>
+      </c>
+      <c r="C18" s="6" t="inlineStr">
+        <is>
+          <t>&lt;script&gt;
+       alert("show")    &lt;/script&gt;</t>
+        </is>
+      </c>
+      <c r="D18" s="1" t="inlineStr">
+        <is>
+          <t>test failed</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="7" t="inlineStr">
+        <is>
+          <t>Duyen1218</t>
+        </is>
+      </c>
+      <c r="B19" s="8" t="inlineStr">
+        <is>
+          <t>ngoc!##$$.hoang11963201@gmail.com</t>
+        </is>
+      </c>
+      <c r="C19" s="7" t="n">
+        <v>1234134</v>
+      </c>
+      <c r="D19" s="7" t="inlineStr">
+        <is>
+          <t>test failed</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="7" t="inlineStr">
+        <is>
+          <t>Duyen1219</t>
+        </is>
+      </c>
+      <c r="B20" s="8" t="inlineStr">
+        <is>
+          <t>hoang47101@donga.edu.vn</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>abc.12345</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>test passed</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="B21" s="8" t="n"/>
+    </row>
+    <row r="22">
+      <c r="B22" s="8" t="n"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:D3"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="B17" r:id="rId1"/>
+    <hyperlink ref="B18" r:id="rId2"/>
+    <hyperlink ref="B19" r:id="rId3"/>
+    <hyperlink ref="B20" r:id="rId4"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait"/>
 </worksheet>
 </file>